--- a/ESERCIZIO_W2D1.xlsx
+++ b/ESERCIZIO_W2D1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0229f22282a5bf5/Desktop/FRA/CORSO DATA ANALYST/W2 esercitazioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{8AF7EED5-2CB4-425E-8FCD-9A09CC6B9994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="14_{8AF7EED5-2CB4-425E-8FCD-9A09CC6B9994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39ED6F5B-F645-4A47-9668-152CC17AC9E8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2480,8 +2480,8 @@
   </sheetPr>
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A32" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2761,7 +2761,9 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddHeader>&amp;C&amp;"-,Grassetto"&amp;11&amp;KFF0000GRAFICI</oddHeader>
+    <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
     <firstHeader>&amp;C&amp;"-,Grassetto"&amp;11&amp;KFF0000SPESE RECENTI</firstHeader>
+    <firstFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</firstFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="20" max="16383" man="1"/>
